--- a/metrics/MAPE/upto time/Neuropatía (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Neuropatía (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3926249036590.259</v>
+        <v>4606378493471.336</v>
       </c>
       <c r="C3" t="n">
-        <v>4362103167427.953</v>
+        <v>4451361793175.819</v>
       </c>
       <c r="D3" t="n">
-        <v>4248915189139.307</v>
+        <v>4216427478239.903</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7339658070185.887</v>
+        <v>7153145334036.611</v>
       </c>
       <c r="C4" t="n">
-        <v>7360419701567.563</v>
+        <v>7390047407646.567</v>
       </c>
       <c r="D4" t="n">
-        <v>7397461463814.897</v>
+        <v>7261560223998.107</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172700056102497.8</v>
+        <v>167301148870608.8</v>
       </c>
       <c r="C5" t="n">
-        <v>217497482984867.6</v>
+        <v>214020398941747.9</v>
       </c>
       <c r="D5" t="n">
-        <v>247447089133617</v>
+        <v>195783779605450.4</v>
       </c>
     </row>
   </sheetData>
